--- a/src/main/webapp/temporary/depart.xlsx
+++ b/src/main/webapp/temporary/depart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
+  <si>
+    <t>合计</t>
+  </si>
   <si>
     <t>顶呱呱集团</t>
   </si>
@@ -372,10 +375,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -392,37 +395,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,67 +404,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,6 +424,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -520,8 +439,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,6 +469,74 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -544,187 +547,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,15 +756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -773,45 +767,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,6 +805,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -858,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1326,13 +1329,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -1343,34 +1346,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1378,7 +1375,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1386,7 +1383,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1394,7 +1391,7 @@
     </row>
     <row r="7" ht="14.25" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1402,15 +1399,15 @@
     </row>
     <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -1418,7 +1415,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1426,7 +1423,7 @@
     </row>
     <row r="11" ht="14.25" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="13" ht="14.25" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -1450,7 +1447,7 @@
     </row>
     <row r="14" ht="14.25" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="15" ht="14.25" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -1466,7 +1463,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -1474,7 +1471,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -1482,7 +1479,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -1490,15 +1487,15 @@
     </row>
     <row r="19" ht="14.25" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -1506,7 +1503,7 @@
     </row>
     <row r="21" ht="14.25" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
@@ -1522,15 +1519,15 @@
     </row>
     <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>28</v>
@@ -1538,7 +1535,7 @@
     </row>
     <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
@@ -1546,7 +1543,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>31</v>
@@ -1562,7 +1559,7 @@
     </row>
     <row r="28" ht="14.25" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>32</v>
@@ -1570,15 +1567,15 @@
     </row>
     <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
@@ -1586,7 +1583,7 @@
     </row>
     <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
@@ -1594,7 +1591,7 @@
     </row>
     <row r="32" ht="14.25" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>37</v>
@@ -1602,7 +1599,7 @@
     </row>
     <row r="33" ht="14.25" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>38</v>
@@ -1610,7 +1607,7 @@
     </row>
     <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>39</v>
@@ -1618,7 +1615,7 @@
     </row>
     <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>40</v>
@@ -1626,7 +1623,7 @@
     </row>
     <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
@@ -1634,7 +1631,7 @@
     </row>
     <row r="37" ht="14.25" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>42</v>
@@ -1642,15 +1639,15 @@
     </row>
     <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>45</v>
@@ -1658,7 +1655,7 @@
     </row>
     <row r="40" ht="14.25" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>46</v>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>47</v>
@@ -1674,7 +1671,7 @@
     </row>
     <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>48</v>
@@ -1682,7 +1679,7 @@
     </row>
     <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>49</v>
@@ -1690,7 +1687,7 @@
     </row>
     <row r="44" ht="14.25" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>50</v>
@@ -1698,7 +1695,7 @@
     </row>
     <row r="45" ht="14.25" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>51</v>
@@ -1706,15 +1703,15 @@
     </row>
     <row r="46" ht="14.25" spans="1:2">
       <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>54</v>
@@ -1722,7 +1719,7 @@
     </row>
     <row r="48" ht="14.25" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>55</v>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="49" ht="14.25" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>56</v>
@@ -1738,7 +1735,7 @@
     </row>
     <row r="50" ht="14.25" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>57</v>
@@ -1746,7 +1743,7 @@
     </row>
     <row r="51" ht="14.25" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>58</v>
@@ -1754,15 +1751,15 @@
     </row>
     <row r="52" ht="14.25" spans="1:2">
       <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>61</v>
@@ -1770,7 +1767,7 @@
     </row>
     <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>62</v>
@@ -1778,7 +1775,7 @@
     </row>
     <row r="55" ht="14.25" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>63</v>
@@ -1786,7 +1783,7 @@
     </row>
     <row r="56" ht="14.25" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>64</v>
@@ -1794,7 +1791,7 @@
     </row>
     <row r="57" ht="14.25" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>65</v>
@@ -1802,15 +1799,15 @@
     </row>
     <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>68</v>
@@ -1818,7 +1815,7 @@
     </row>
     <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>69</v>
@@ -1826,7 +1823,7 @@
     </row>
     <row r="61" ht="14.25" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>70</v>
@@ -1834,7 +1831,7 @@
     </row>
     <row r="62" ht="14.25" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>71</v>
@@ -1842,15 +1839,15 @@
     </row>
     <row r="63" ht="14.25" spans="1:2">
       <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>74</v>
@@ -1858,7 +1855,7 @@
     </row>
     <row r="65" ht="14.25" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>75</v>
@@ -1866,7 +1863,7 @@
     </row>
     <row r="66" ht="14.25" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>76</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="67" ht="14.25" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>77</v>
@@ -1882,15 +1879,15 @@
     </row>
     <row r="68" ht="14.25" spans="1:2">
       <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>80</v>
@@ -1898,7 +1895,7 @@
     </row>
     <row r="70" ht="14.25" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>81</v>
@@ -1906,15 +1903,15 @@
     </row>
     <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>84</v>
@@ -1922,7 +1919,7 @@
     </row>
     <row r="73" ht="14.25" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>85</v>
@@ -1930,7 +1927,7 @@
     </row>
     <row r="74" ht="14.25" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>86</v>
@@ -1938,7 +1935,7 @@
     </row>
     <row r="75" ht="14.25" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>87</v>
@@ -1946,7 +1943,7 @@
     </row>
     <row r="76" ht="14.25" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>88</v>
@@ -1954,7 +1951,7 @@
     </row>
     <row r="77" ht="14.25" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>89</v>
@@ -1962,15 +1959,15 @@
     </row>
     <row r="78" ht="14.25" spans="1:2">
       <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>92</v>
@@ -1978,7 +1975,7 @@
     </row>
     <row r="80" ht="14.25" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>93</v>
@@ -1986,7 +1983,7 @@
     </row>
     <row r="81" ht="14.25" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>94</v>
@@ -1994,7 +1991,7 @@
     </row>
     <row r="82" ht="14.25" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>95</v>
@@ -2002,7 +1999,7 @@
     </row>
     <row r="83" ht="14.25" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>96</v>
@@ -2010,15 +2007,15 @@
     </row>
     <row r="84" ht="14.25" spans="1:2">
       <c r="A84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>99</v>
@@ -2026,7 +2023,7 @@
     </row>
     <row r="86" ht="14.25" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>100</v>
@@ -2034,7 +2031,7 @@
     </row>
     <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>101</v>
@@ -2042,7 +2039,7 @@
     </row>
     <row r="88" ht="14.25" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>102</v>
@@ -2050,7 +2047,7 @@
     </row>
     <row r="89" ht="14.25" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>103</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="90" ht="14.25" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>104</v>
@@ -2066,7 +2063,7 @@
     </row>
     <row r="91" ht="14.25" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>105</v>
@@ -2074,15 +2071,15 @@
     </row>
     <row r="92" ht="14.25" spans="1:2">
       <c r="A92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>108</v>
@@ -2090,23 +2087,23 @@
     </row>
     <row r="94" ht="14.25" spans="1:2">
       <c r="A94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:2">
       <c r="A95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>113</v>
@@ -2114,26 +2111,34 @@
     </row>
     <row r="97" ht="14.25" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/temporary/depart.xlsx
+++ b/src/main/webapp/temporary/depart.xlsx
@@ -17,9 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
   <si>
     <t>顶呱呱集团</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
   <si>
     <t>企大宝服务公司</t>
@@ -372,10 +375,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -405,19 +408,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,32 +423,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,9 +438,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,8 +499,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,7 +516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,14 +524,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,7 +532,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,13 +547,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,169 +715,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,15 +756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -778,21 +772,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -803,6 +782,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,21 +819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -850,6 +829,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -858,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1326,13 +1329,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -1346,31 +1349,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:3">
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1378,7 +1375,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1386,7 +1383,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1394,7 +1391,7 @@
     </row>
     <row r="7" ht="14.25" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1402,15 +1399,15 @@
     </row>
     <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -1418,7 +1415,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1426,7 +1423,7 @@
     </row>
     <row r="11" ht="14.25" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="13" ht="14.25" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -1450,7 +1447,7 @@
     </row>
     <row r="14" ht="14.25" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="15" ht="14.25" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -1466,7 +1463,7 @@
     </row>
     <row r="16" ht="14.25" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -1474,7 +1471,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -1482,7 +1479,7 @@
     </row>
     <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -1490,15 +1487,15 @@
     </row>
     <row r="19" ht="14.25" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -1506,7 +1503,7 @@
     </row>
     <row r="21" ht="14.25" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
@@ -1522,15 +1519,15 @@
     </row>
     <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>28</v>
@@ -1538,7 +1535,7 @@
     </row>
     <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
@@ -1546,7 +1543,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>31</v>
@@ -1562,7 +1559,7 @@
     </row>
     <row r="28" ht="14.25" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>32</v>
@@ -1570,15 +1567,15 @@
     </row>
     <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
@@ -1586,7 +1583,7 @@
     </row>
     <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
@@ -1594,7 +1591,7 @@
     </row>
     <row r="32" ht="14.25" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>37</v>
@@ -1602,7 +1599,7 @@
     </row>
     <row r="33" ht="14.25" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>38</v>
@@ -1610,7 +1607,7 @@
     </row>
     <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>39</v>
@@ -1618,7 +1615,7 @@
     </row>
     <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>40</v>
@@ -1626,7 +1623,7 @@
     </row>
     <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
@@ -1634,7 +1631,7 @@
     </row>
     <row r="37" ht="14.25" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>42</v>
@@ -1642,15 +1639,15 @@
     </row>
     <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>45</v>
@@ -1658,7 +1655,7 @@
     </row>
     <row r="40" ht="14.25" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>46</v>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>47</v>
@@ -1674,7 +1671,7 @@
     </row>
     <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>48</v>
@@ -1682,7 +1679,7 @@
     </row>
     <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>49</v>
@@ -1690,7 +1687,7 @@
     </row>
     <row r="44" ht="14.25" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>50</v>
@@ -1698,7 +1695,7 @@
     </row>
     <row r="45" ht="14.25" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>51</v>
@@ -1706,15 +1703,15 @@
     </row>
     <row r="46" ht="14.25" spans="1:2">
       <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>54</v>
@@ -1722,7 +1719,7 @@
     </row>
     <row r="48" ht="14.25" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>55</v>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="49" ht="14.25" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>56</v>
@@ -1738,7 +1735,7 @@
     </row>
     <row r="50" ht="14.25" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>57</v>
@@ -1746,7 +1743,7 @@
     </row>
     <row r="51" ht="14.25" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>58</v>
@@ -1754,15 +1751,15 @@
     </row>
     <row r="52" ht="14.25" spans="1:2">
       <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>61</v>
@@ -1770,7 +1767,7 @@
     </row>
     <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>62</v>
@@ -1778,7 +1775,7 @@
     </row>
     <row r="55" ht="14.25" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>63</v>
@@ -1786,7 +1783,7 @@
     </row>
     <row r="56" ht="14.25" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>64</v>
@@ -1794,7 +1791,7 @@
     </row>
     <row r="57" ht="14.25" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>65</v>
@@ -1802,15 +1799,15 @@
     </row>
     <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>68</v>
@@ -1818,7 +1815,7 @@
     </row>
     <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>69</v>
@@ -1826,7 +1823,7 @@
     </row>
     <row r="61" ht="14.25" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>70</v>
@@ -1834,7 +1831,7 @@
     </row>
     <row r="62" ht="14.25" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>71</v>
@@ -1842,15 +1839,15 @@
     </row>
     <row r="63" ht="14.25" spans="1:2">
       <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>74</v>
@@ -1858,7 +1855,7 @@
     </row>
     <row r="65" ht="14.25" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>75</v>
@@ -1866,7 +1863,7 @@
     </row>
     <row r="66" ht="14.25" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>76</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="67" ht="14.25" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>77</v>
@@ -1882,15 +1879,15 @@
     </row>
     <row r="68" ht="14.25" spans="1:2">
       <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>80</v>
@@ -1898,7 +1895,7 @@
     </row>
     <row r="70" ht="14.25" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>81</v>
@@ -1906,15 +1903,15 @@
     </row>
     <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>84</v>
@@ -1922,7 +1919,7 @@
     </row>
     <row r="73" ht="14.25" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>85</v>
@@ -1930,7 +1927,7 @@
     </row>
     <row r="74" ht="14.25" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>86</v>
@@ -1938,7 +1935,7 @@
     </row>
     <row r="75" ht="14.25" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>87</v>
@@ -1946,7 +1943,7 @@
     </row>
     <row r="76" ht="14.25" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>88</v>
@@ -1954,7 +1951,7 @@
     </row>
     <row r="77" ht="14.25" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>89</v>
@@ -1962,15 +1959,15 @@
     </row>
     <row r="78" ht="14.25" spans="1:2">
       <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>92</v>
@@ -1978,7 +1975,7 @@
     </row>
     <row r="80" ht="14.25" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>93</v>
@@ -1986,7 +1983,7 @@
     </row>
     <row r="81" ht="14.25" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>94</v>
@@ -1994,7 +1991,7 @@
     </row>
     <row r="82" ht="14.25" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>95</v>
@@ -2002,7 +1999,7 @@
     </row>
     <row r="83" ht="14.25" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>96</v>
@@ -2010,15 +2007,15 @@
     </row>
     <row r="84" ht="14.25" spans="1:2">
       <c r="A84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>99</v>
@@ -2026,7 +2023,7 @@
     </row>
     <row r="86" ht="14.25" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>100</v>
@@ -2034,7 +2031,7 @@
     </row>
     <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>101</v>
@@ -2042,7 +2039,7 @@
     </row>
     <row r="88" ht="14.25" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>102</v>
@@ -2050,7 +2047,7 @@
     </row>
     <row r="89" ht="14.25" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>103</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="90" ht="14.25" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>104</v>
@@ -2066,7 +2063,7 @@
     </row>
     <row r="91" ht="14.25" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>105</v>
@@ -2074,15 +2071,15 @@
     </row>
     <row r="92" ht="14.25" spans="1:2">
       <c r="A92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>108</v>
@@ -2090,23 +2087,23 @@
     </row>
     <row r="94" ht="14.25" spans="1:2">
       <c r="A94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:2">
       <c r="A95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>113</v>
@@ -2114,26 +2111,34 @@
     </row>
     <row r="97" ht="14.25" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/temporary/depart.xlsx
+++ b/src/main/webapp/temporary/depart.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="123">
   <si>
     <t>合计</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>资源运营事业部</t>
+  </si>
+  <si>
+    <t>北京分公司</t>
+  </si>
+  <si>
+    <t>北京创业发展事业部</t>
+  </si>
+  <si>
+    <t>北京大客户事业部</t>
+  </si>
+  <si>
+    <t>北京融资事业部</t>
+  </si>
+  <si>
+    <t>北京资质事业部</t>
+  </si>
+  <si>
+    <t>北京综合事业部</t>
   </si>
   <si>
     <t>成都分公司</t>
@@ -375,12 +393,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,8 +412,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,23 +457,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,7 +480,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,66 +525,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -531,12 +541,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -547,25 +572,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,151 +662,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,26 +781,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,6 +805,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -802,15 +827,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,6 +855,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -854,17 +879,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +898,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,7 +1039,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1061,6 +1089,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1329,10 +1358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1447,55 +1476,55 @@
     </row>
     <row r="14" ht="14.25" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -1503,7 +1532,7 @@
     </row>
     <row r="21" ht="14.25" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -1511,7 +1540,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
@@ -1519,7 +1548,7 @@
     </row>
     <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -1527,15 +1556,15 @@
     </row>
     <row r="24" ht="14.25" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
@@ -1543,7 +1572,7 @@
     </row>
     <row r="26" ht="14.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
@@ -1551,7 +1580,7 @@
     </row>
     <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>31</v>
@@ -1559,7 +1588,7 @@
     </row>
     <row r="28" ht="14.25" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>32</v>
@@ -1567,15 +1596,15 @@
     </row>
     <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
@@ -1583,7 +1612,7 @@
     </row>
     <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
@@ -1591,7 +1620,7 @@
     </row>
     <row r="32" ht="14.25" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>37</v>
@@ -1599,7 +1628,7 @@
     </row>
     <row r="33" ht="14.25" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>38</v>
@@ -1607,7 +1636,7 @@
     </row>
     <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>39</v>
@@ -1615,39 +1644,39 @@
     </row>
     <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>45</v>
@@ -1655,7 +1684,7 @@
     </row>
     <row r="40" ht="14.25" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>46</v>
@@ -1663,7 +1692,7 @@
     </row>
     <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>47</v>
@@ -1671,7 +1700,7 @@
     </row>
     <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>48</v>
@@ -1679,7 +1708,7 @@
     </row>
     <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>49</v>
@@ -1687,31 +1716,31 @@
     </row>
     <row r="44" ht="14.25" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>54</v>
@@ -1719,7 +1748,7 @@
     </row>
     <row r="48" ht="14.25" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>55</v>
@@ -1727,7 +1756,7 @@
     </row>
     <row r="49" ht="14.25" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>56</v>
@@ -1735,7 +1764,7 @@
     </row>
     <row r="50" ht="14.25" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>57</v>
@@ -1743,7 +1772,7 @@
     </row>
     <row r="51" ht="14.25" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>58</v>
@@ -1751,15 +1780,15 @@
     </row>
     <row r="52" ht="14.25" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>61</v>
@@ -1767,7 +1796,7 @@
     </row>
     <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>62</v>
@@ -1775,7 +1804,7 @@
     </row>
     <row r="55" ht="14.25" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>63</v>
@@ -1783,7 +1812,7 @@
     </row>
     <row r="56" ht="14.25" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>64</v>
@@ -1791,7 +1820,7 @@
     </row>
     <row r="57" ht="14.25" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>65</v>
@@ -1799,15 +1828,15 @@
     </row>
     <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>68</v>
@@ -1815,7 +1844,7 @@
     </row>
     <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>69</v>
@@ -1823,7 +1852,7 @@
     </row>
     <row r="61" ht="14.25" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>70</v>
@@ -1831,7 +1860,7 @@
     </row>
     <row r="62" ht="14.25" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>71</v>
@@ -1839,7 +1868,7 @@
     </row>
     <row r="63" ht="14.25" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>72</v>
@@ -1911,23 +1940,23 @@
     </row>
     <row r="72" ht="14.25" spans="1:2">
       <c r="A72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>86</v>
@@ -1935,7 +1964,7 @@
     </row>
     <row r="75" ht="14.25" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>87</v>
@@ -1943,7 +1972,7 @@
     </row>
     <row r="76" ht="14.25" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>88</v>
@@ -1951,23 +1980,23 @@
     </row>
     <row r="77" ht="14.25" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>92</v>
@@ -1975,7 +2004,7 @@
     </row>
     <row r="80" ht="14.25" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>93</v>
@@ -1983,7 +2012,7 @@
     </row>
     <row r="81" ht="14.25" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>94</v>
@@ -1991,7 +2020,7 @@
     </row>
     <row r="82" ht="14.25" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>95</v>
@@ -1999,7 +2028,7 @@
     </row>
     <row r="83" ht="14.25" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>96</v>
@@ -2007,15 +2036,15 @@
     </row>
     <row r="84" ht="14.25" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>99</v>
@@ -2023,7 +2052,7 @@
     </row>
     <row r="86" ht="14.25" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>100</v>
@@ -2031,7 +2060,7 @@
     </row>
     <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>101</v>
@@ -2039,7 +2068,7 @@
     </row>
     <row r="88" ht="14.25" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>102</v>
@@ -2047,7 +2076,7 @@
     </row>
     <row r="89" ht="14.25" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>103</v>
@@ -2055,31 +2084,31 @@
     </row>
     <row r="90" ht="14.25" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>108</v>
@@ -2087,7 +2116,7 @@
     </row>
     <row r="94" ht="14.25" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>109</v>
@@ -2095,39 +2124,39 @@
     </row>
     <row r="95" ht="14.25" spans="1:2">
       <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:2">
       <c r="A97" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>115</v>
@@ -2135,10 +2164,50 @@
     </row>
     <row r="100" ht="14.25" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
